--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13380" windowHeight="12060" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="743">
   <si>
     <t>id|</t>
   </si>
@@ -5244,8 +5244,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -5294,6 +5294,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -5308,11 +5332,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5330,16 +5368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5354,8 +5384,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5378,42 +5409,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5426,13 +5433,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5505,13 +5505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5523,7 +5529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5535,79 +5553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5625,13 +5589,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5643,13 +5643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5668,6 +5662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5709,9 +5709,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5731,17 +5763,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5750,32 +5776,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5810,10 +5810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5822,133 +5822,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -18897,7 +18897,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D591" sqref="D591"/>
+      <selection pane="bottomLeft" activeCell="H593" sqref="H593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28085,7 +28085,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:5">
       <c r="A592" s="7">
         <v>591</v>
       </c>
@@ -28094,6 +28094,9 @@
       </c>
       <c r="C592" s="4" t="s">
         <v>700</v>
+      </c>
+      <c r="E592" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="593" spans="1:5">

--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -792,10 +792,10 @@
     <t>obj_xrxsfl_5_50box</t>
   </si>
   <si>
-    <t>prop_any_dice_2</t>
-  </si>
-  <si>
-    <t>prop_any_dice_1</t>
+    <t>prop_super_treasure_key_2</t>
+  </si>
+  <si>
+    <t>prop_super_treasure_key_1</t>
   </si>
   <si>
     <t>lottery_type</t>
@@ -5298,12 +5298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5336,30 +5336,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5368,6 +5362,29 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5385,29 +5402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -5416,10 +5410,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5428,33 +5422,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5468,14 +5435,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5491,10 +5451,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5559,37 +5553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5607,7 +5577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5619,31 +5601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5655,7 +5613,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5667,7 +5697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5679,43 +5709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5761,11 +5755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5809,26 +5809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5858,16 +5843,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5876,136 +5870,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6137,8 +6131,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6149,7 +6143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6484,7 +6478,7 @@
   <sheetPr/>
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
@@ -9357,10 +9351,10 @@
   <sheetPr/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -10559,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10573,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="15.75" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10656,11 +10650,11 @@
   <dimension ref="A1:E611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B582" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B579" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D614" sqref="D614"/>
+      <selection pane="bottomRight" activeCell="E587" sqref="E587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -19242,9 +19236,9 @@
   <dimension ref="A1:F616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A616" sqref="A616"/>
+      <selection pane="bottomLeft" activeCell="E594" sqref="E594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="13380" windowHeight="12060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5090,7 +5090,7 @@
     <t>vivo手机</t>
   </si>
   <si>
-    <t>4300</t>
+    <t>4300,4300</t>
   </si>
   <si>
     <t>4300000,4300000</t>
@@ -5294,14 +5294,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -5316,15 +5308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5337,22 +5330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5361,10 +5338,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5376,11 +5354,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5398,11 +5375,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5423,7 +5395,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5437,10 +5432,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5505,19 +5505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5529,7 +5523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5541,7 +5559,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5559,79 +5607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5649,13 +5625,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5667,7 +5667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5709,11 +5709,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5733,35 +5746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5777,6 +5766,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5810,10 +5810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5822,136 +5822,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -18895,9 +18895,9 @@
   <dimension ref="A1:F601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E605" sqref="E605"/>
+      <selection pane="bottomLeft" activeCell="D591" sqref="D591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5244,10 +5244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -5294,8 +5294,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5303,36 +5304,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5353,31 +5324,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5392,18 +5362,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5423,6 +5393,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -5430,11 +5408,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5443,12 +5420,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5505,19 +5505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5529,49 +5517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5589,13 +5535,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5607,25 +5649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5637,37 +5661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5707,37 +5707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5757,17 +5737,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5804,16 +5778,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5822,109 +5822,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5933,25 +5933,25 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9234,7 +9234,7 @@
   <sheetPr/>
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
@@ -18897,7 +18897,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C601" sqref="C601"/>
+      <selection pane="bottomLeft" activeCell="D592" sqref="D592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28085,14 +28085,14 @@
         <v>553</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:3">
       <c r="A592" s="7">
         <v>591</v>
       </c>
       <c r="B592" s="8">
         <v>12063</v>
       </c>
-      <c r="D592" s="4" t="s">
+      <c r="C592" s="4" t="s">
         <v>700</v>
       </c>
     </row>
@@ -28237,7 +28237,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -29745,8 +29745,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5099,7 +5099,7 @@
     <t>400000,400000</t>
   </si>
   <si>
-    <t>43000</t>
+    <t>43000,43000</t>
   </si>
   <si>
     <t>43000000,43000000</t>
@@ -5244,10 +5244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -5296,7 +5296,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5317,12 +5324,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5330,16 +5345,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5354,11 +5377,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5371,57 +5415,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5430,7 +5423,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5505,7 +5505,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5517,13 +5529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5535,7 +5547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5547,7 +5571,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5559,115 +5661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5707,17 +5707,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5733,15 +5729,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5794,13 +5781,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5810,10 +5810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5822,136 +5822,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9234,7 +9234,7 @@
   <sheetPr/>
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
@@ -18894,10 +18894,10 @@
   <sheetPr/>
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D592" sqref="D592"/>
+      <selection pane="bottomLeft" activeCell="E605" sqref="E605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="760">
   <si>
     <t>id|</t>
   </si>
@@ -5114,9 +5114,6 @@
     <t>38000,38000</t>
   </si>
   <si>
-    <t>没得空调</t>
-  </si>
-  <si>
     <t>平板电脑</t>
   </si>
   <si>
@@ -5298,9 +5295,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -5342,16 +5339,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5373,8 +5383,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5389,45 +5431,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5449,9 +5468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5460,27 +5478,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5553,7 +5550,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5565,25 +5652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5595,43 +5664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5643,37 +5676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5697,25 +5700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5770,15 +5767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5790,6 +5778,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5811,44 +5841,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5858,10 +5855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5870,138 +5867,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6130,9 +6127,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6481,7 +6475,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6514,22 +6508,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -6562,8 +6556,8 @@
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" ht="16.5" spans="1:17">
       <c r="A3" s="8">
@@ -6588,8 +6582,8 @@
       <c r="L3" s="4">
         <v>0</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" ht="16.5" spans="1:17">
       <c r="A4" s="8">
@@ -6614,8 +6608,8 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8">
@@ -6664,8 +6658,8 @@
       <c r="L6" s="38">
         <v>1</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" ht="16.5" spans="1:17">
       <c r="A7" s="8">
@@ -6690,8 +6684,8 @@
       <c r="L7" s="38">
         <v>0</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="8">
@@ -6708,22 +6702,22 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="4">
         <v>7</v>
       </c>
       <c r="L8" s="38">
         <v>0</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" ht="16.5" spans="1:17">
       <c r="A9" s="8">
@@ -6740,22 +6734,22 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="4">
         <v>8</v>
       </c>
       <c r="L9" s="38">
         <v>0</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="8">
@@ -6772,22 +6766,22 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="K10" s="4">
         <v>9</v>
       </c>
       <c r="L10" s="38">
         <v>0</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="8">
@@ -6804,22 +6798,22 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
       <c r="K11" s="4">
         <v>10</v>
       </c>
       <c r="L11" s="38">
         <v>0</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="8">
@@ -6844,8 +6838,8 @@
       <c r="L12" s="38">
         <v>0</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="8">
@@ -6870,8 +6864,8 @@
       <c r="L13" s="38">
         <v>0</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A14" s="8">
@@ -6900,7 +6894,7 @@
       <c r="L14" s="39">
         <v>0</v>
       </c>
-      <c r="O14" s="53"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A15" s="8">
@@ -6929,7 +6923,7 @@
       <c r="L15" s="39">
         <v>0</v>
       </c>
-      <c r="O15" s="53"/>
+      <c r="O15" s="52"/>
     </row>
     <row r="16" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A16" s="8">
@@ -6958,7 +6952,7 @@
       <c r="L16" s="39">
         <v>0</v>
       </c>
-      <c r="O16" s="53"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" s="39" customFormat="1" ht="16.5" spans="1:15">
       <c r="A17" s="8">
@@ -6987,7 +6981,7 @@
       <c r="L17" s="39">
         <v>0</v>
       </c>
-      <c r="O17" s="53"/>
+      <c r="O17" s="52"/>
     </row>
     <row r="18" s="39" customFormat="1" spans="1:12">
       <c r="A18" s="8">
@@ -7044,7 +7038,7 @@
       <c r="L19" s="39">
         <v>0</v>
       </c>
-      <c r="O19" s="53"/>
+      <c r="O19" s="52"/>
     </row>
     <row r="20" s="39" customFormat="1" spans="1:12">
       <c r="A20" s="8">
@@ -7059,7 +7053,7 @@
       <c r="D20" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="49">
         <v>14</v>
       </c>
       <c r="F20" s="7"/>
@@ -7091,7 +7085,7 @@
       <c r="D21" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="49">
         <v>15</v>
       </c>
       <c r="F21" s="7"/>
@@ -7109,8 +7103,8 @@
       <c r="L21" s="39">
         <v>0</v>
       </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A22" s="8">
@@ -7125,7 +7119,7 @@
       <c r="D22" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="49">
         <v>16</v>
       </c>
       <c r="F22" s="7"/>
@@ -7143,8 +7137,8 @@
       <c r="L22" s="39">
         <v>0</v>
       </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A23" s="8">
@@ -7159,7 +7153,7 @@
       <c r="D23" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E23" s="50">
+      <c r="E23" s="49">
         <v>17</v>
       </c>
       <c r="F23" s="7"/>
@@ -7177,8 +7171,8 @@
       <c r="L23" s="39">
         <v>0</v>
       </c>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" s="39" customFormat="1" ht="16.5" spans="1:17">
       <c r="A24" s="8">
@@ -7193,7 +7187,7 @@
       <c r="D24" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="49">
         <v>18</v>
       </c>
       <c r="F24" s="7"/>
@@ -7211,8 +7205,8 @@
       <c r="L24" s="39">
         <v>0</v>
       </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" s="39" customFormat="1" spans="1:12">
       <c r="A25" s="8">
@@ -7227,7 +7221,7 @@
       <c r="D25" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="49">
         <v>19</v>
       </c>
       <c r="F25" s="7"/>
@@ -7259,7 +7253,7 @@
       <c r="D26" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="49">
         <v>20</v>
       </c>
       <c r="F26" s="7"/>
@@ -7291,7 +7285,7 @@
       <c r="D27" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="49">
         <v>21</v>
       </c>
       <c r="F27" s="7"/>
@@ -7323,7 +7317,7 @@
       <c r="D28" s="8">
         <v>1592841599</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="49">
         <v>22</v>
       </c>
       <c r="F28" s="7"/>
@@ -7355,7 +7349,7 @@
       <c r="D29" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="49">
         <v>23</v>
       </c>
       <c r="F29" s="7"/>
@@ -7387,7 +7381,7 @@
       <c r="D30" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="49">
         <v>24</v>
       </c>
       <c r="F30" s="7"/>
@@ -7419,7 +7413,7 @@
       <c r="D31" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E31" s="50">
+      <c r="E31" s="49">
         <v>25</v>
       </c>
       <c r="F31" s="7"/>
@@ -7451,7 +7445,7 @@
       <c r="D32" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="49">
         <v>26</v>
       </c>
       <c r="F32" s="7"/>
@@ -7483,7 +7477,7 @@
       <c r="D33" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="49">
         <v>27</v>
       </c>
       <c r="F33" s="7"/>
@@ -7515,7 +7509,7 @@
       <c r="D34" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="49">
         <v>28</v>
       </c>
       <c r="F34" s="7"/>
@@ -7547,7 +7541,7 @@
       <c r="D35" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="49">
         <v>29</v>
       </c>
       <c r="F35" s="7"/>
@@ -7579,7 +7573,7 @@
       <c r="D36" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="49">
         <v>30</v>
       </c>
       <c r="F36" s="7"/>
@@ -7611,7 +7605,7 @@
       <c r="D37" s="8">
         <v>1598284799</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="49">
         <v>31</v>
       </c>
       <c r="F37" s="7"/>
@@ -7643,7 +7637,7 @@
       <c r="D38" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="49">
         <v>32</v>
       </c>
       <c r="F38" s="7"/>
@@ -7671,7 +7665,7 @@
       <c r="D39" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="49">
         <v>33</v>
       </c>
       <c r="F39" s="7"/>
@@ -7699,7 +7693,7 @@
       <c r="D40" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E40" s="50">
+      <c r="E40" s="49">
         <v>34</v>
       </c>
       <c r="F40" s="7"/>
@@ -7727,7 +7721,7 @@
       <c r="D41" s="39">
         <v>1603123199</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="49">
         <v>35</v>
       </c>
       <c r="F41" s="7"/>
@@ -7755,7 +7749,7 @@
       <c r="D42" s="39">
         <v>1600099199</v>
       </c>
-      <c r="E42" s="50">
+      <c r="E42" s="49">
         <v>36</v>
       </c>
       <c r="F42" s="7"/>
@@ -7783,7 +7777,7 @@
       <c r="D43" s="39">
         <v>1601308799</v>
       </c>
-      <c r="E43" s="50">
+      <c r="E43" s="49">
         <v>37</v>
       </c>
       <c r="F43" s="7"/>
@@ -7811,7 +7805,7 @@
       <c r="D44" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E44" s="49">
         <v>38</v>
       </c>
       <c r="F44" s="7"/>
@@ -7839,7 +7833,7 @@
       <c r="D45" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="49">
         <v>39</v>
       </c>
       <c r="F45" s="7"/>
@@ -7867,7 +7861,7 @@
       <c r="D46" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="49">
         <v>40</v>
       </c>
       <c r="F46" s="7"/>
@@ -7895,7 +7889,7 @@
       <c r="D47" s="39">
         <v>1603727999</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="49">
         <v>41</v>
       </c>
       <c r="F47" s="7"/>
@@ -7927,7 +7921,7 @@
       <c r="D48" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E48" s="49">
         <v>42</v>
       </c>
       <c r="F48" s="7"/>
@@ -7959,7 +7953,7 @@
       <c r="D49" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E49" s="49">
         <v>43</v>
       </c>
       <c r="F49" s="7"/>
@@ -7991,7 +7985,7 @@
       <c r="D50" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E50" s="50">
+      <c r="E50" s="49">
         <v>44</v>
       </c>
       <c r="F50" s="7"/>
@@ -8023,7 +8017,7 @@
       <c r="D51" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E51" s="50">
+      <c r="E51" s="49">
         <v>45</v>
       </c>
       <c r="F51" s="7"/>
@@ -8055,7 +8049,7 @@
       <c r="D52" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="49">
         <v>46</v>
       </c>
       <c r="F52" s="7"/>
@@ -8087,7 +8081,7 @@
       <c r="D53" s="39">
         <v>1604332799</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="49">
         <v>47</v>
       </c>
       <c r="F53" s="7"/>
@@ -8119,7 +8113,7 @@
       <c r="D54" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="49">
         <v>48</v>
       </c>
       <c r="F54" s="7"/>
@@ -8147,7 +8141,7 @@
       <c r="D55" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="49">
         <v>49</v>
       </c>
       <c r="F55" s="7"/>
@@ -8175,7 +8169,7 @@
       <c r="D56" s="39">
         <v>2552233600</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="49">
         <v>50</v>
       </c>
       <c r="F56" s="7"/>
@@ -8203,7 +8197,7 @@
       <c r="D57" s="39">
         <v>1605542399</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="49">
         <v>51</v>
       </c>
       <c r="F57" s="7"/>
@@ -8231,7 +8225,7 @@
       <c r="D58" s="39">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="49">
         <v>52</v>
       </c>
       <c r="F58" s="7"/>
@@ -8259,7 +8253,7 @@
       <c r="D59" s="39">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="49">
         <v>53</v>
       </c>
       <c r="F59" s="7"/>
@@ -8287,7 +8281,7 @@
       <c r="D60" s="39">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="49">
         <v>54</v>
       </c>
       <c r="F60" s="7"/>
@@ -8315,7 +8309,7 @@
       <c r="D61" s="8">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="49">
         <v>55</v>
       </c>
       <c r="F61" s="7"/>
@@ -8343,7 +8337,7 @@
       <c r="D62" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="49">
         <v>56</v>
       </c>
       <c r="F62" s="8"/>
@@ -8371,7 +8365,7 @@
       <c r="D63" s="8">
         <v>32503651200</v>
       </c>
-      <c r="E63" s="50">
+      <c r="E63" s="49">
         <v>57</v>
       </c>
       <c r="F63" s="7"/>
@@ -8393,13 +8387,13 @@
       <c r="B64" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64" s="49">
         <v>58</v>
       </c>
       <c r="F64" s="7"/>
@@ -8425,13 +8419,13 @@
       <c r="B65" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="50">
+      <c r="E65" s="49">
         <v>59</v>
       </c>
       <c r="F65" s="7"/>
@@ -8457,13 +8451,13 @@
       <c r="B66" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66" s="49">
         <v>60</v>
       </c>
       <c r="F66" s="7"/>
@@ -8489,13 +8483,13 @@
       <c r="B67" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="50">
+      <c r="E67" s="49">
         <v>61</v>
       </c>
       <c r="F67" s="7"/>
@@ -8521,13 +8515,13 @@
       <c r="B68" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="50">
+      <c r="E68" s="49">
         <v>62</v>
       </c>
       <c r="F68" s="7"/>
@@ -8553,13 +8547,13 @@
       <c r="B69" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="50">
+      <c r="E69" s="49">
         <v>63</v>
       </c>
       <c r="F69" s="7"/>
@@ -8585,13 +8579,13 @@
       <c r="B70" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="50">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>1610380799</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70" s="49">
         <v>64</v>
       </c>
       <c r="F70" s="7"/>
@@ -8619,7 +8613,7 @@
       <c r="D71" s="39">
         <v>1610985599</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71" s="49">
         <v>65</v>
       </c>
       <c r="F71" s="7"/>
@@ -8647,7 +8641,7 @@
       <c r="D72" s="39">
         <v>1610985599</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72" s="49">
         <v>66</v>
       </c>
       <c r="F72" s="7"/>
@@ -8675,7 +8669,7 @@
       <c r="D73" s="39">
         <v>1610985599</v>
       </c>
-      <c r="E73" s="50">
+      <c r="E73" s="49">
         <v>67</v>
       </c>
       <c r="F73" s="7"/>
@@ -8703,7 +8697,7 @@
       <c r="D74" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E74" s="50">
+      <c r="E74" s="49">
         <v>68</v>
       </c>
       <c r="F74" s="7"/>
@@ -8731,7 +8725,7 @@
       <c r="D75" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E75" s="50">
+      <c r="E75" s="49">
         <v>69</v>
       </c>
       <c r="F75" s="7"/>
@@ -8759,7 +8753,7 @@
       <c r="D76" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E76" s="50">
+      <c r="E76" s="49">
         <v>69</v>
       </c>
       <c r="F76" s="7"/>
@@ -8787,7 +8781,7 @@
       <c r="D77" s="39">
         <v>1613404799</v>
       </c>
-      <c r="E77" s="50">
+      <c r="E77" s="49">
         <v>69</v>
       </c>
       <c r="F77" s="7"/>
@@ -8815,7 +8809,7 @@
       <c r="D78" s="39">
         <v>1614009599</v>
       </c>
-      <c r="E78" s="50">
+      <c r="E78" s="49">
         <v>70</v>
       </c>
       <c r="F78" s="7"/>
@@ -8843,7 +8837,7 @@
       <c r="D79" s="39">
         <v>1614009599</v>
       </c>
-      <c r="E79" s="50">
+      <c r="E79" s="49">
         <v>71</v>
       </c>
       <c r="F79" s="7"/>
@@ -8871,7 +8865,7 @@
       <c r="D80" s="39">
         <v>1615219199</v>
       </c>
-      <c r="E80" s="50">
+      <c r="E80" s="49">
         <v>72</v>
       </c>
       <c r="F80" s="7"/>
@@ -8899,7 +8893,7 @@
       <c r="D81" s="39">
         <v>1615219199</v>
       </c>
-      <c r="E81" s="50">
+      <c r="E81" s="49">
         <v>73</v>
       </c>
       <c r="F81" s="7"/>
@@ -8927,7 +8921,7 @@
       <c r="D82" s="39">
         <v>1615219199</v>
       </c>
-      <c r="E82" s="50">
+      <c r="E82" s="49">
         <v>74</v>
       </c>
       <c r="F82" s="7"/>
@@ -9070,14 +9064,14 @@
       <c r="D88" s="29">
         <v>1616428799</v>
       </c>
-      <c r="E88" s="54">
+      <c r="E88" s="53">
         <v>80</v>
       </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
       <c r="K88" s="46">
         <v>86</v>
       </c>
@@ -9115,10 +9109,10 @@
       <c r="B90" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="51">
+      <c r="C90" s="50">
         <v>1619481600</v>
       </c>
-      <c r="D90" s="51">
+      <c r="D90" s="50">
         <v>1620662399</v>
       </c>
       <c r="E90" s="14">
@@ -9138,10 +9132,10 @@
       <c r="B91" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="50">
         <v>1621296000</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="50">
         <v>1621871999</v>
       </c>
       <c r="E91" s="14">
@@ -9161,10 +9155,10 @@
       <c r="B92" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="51">
+      <c r="C92" s="50">
         <v>1621296000</v>
       </c>
-      <c r="D92" s="51">
+      <c r="D92" s="50">
         <v>1621871999</v>
       </c>
       <c r="E92" s="14">
@@ -9184,10 +9178,10 @@
       <c r="B93" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="50">
         <v>1621296000</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D93" s="50">
         <v>1621871999</v>
       </c>
       <c r="E93" s="14">
@@ -9207,10 +9201,10 @@
       <c r="B94" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="51">
+      <c r="C94" s="50">
         <v>1622505600</v>
       </c>
-      <c r="D94" s="51">
+      <c r="D94" s="50">
         <v>1623081599</v>
       </c>
       <c r="E94" s="14">
@@ -9351,7 +9345,7 @@
   <sheetPr/>
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
@@ -10560,7 +10554,7 @@
       <c r="B86">
         <v>85</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="15" t="s">
         <v>158</v>
       </c>
       <c r="D86" s="38">
@@ -10574,7 +10568,7 @@
       <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="15" t="s">
         <v>159</v>
       </c>
       <c r="D87" s="38">
@@ -10650,11 +10644,11 @@
   <dimension ref="A1:E611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B579" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B582" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E587" sqref="E587"/>
+      <selection pane="bottomRight" activeCell="B609" sqref="B609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -19235,10 +19229,10 @@
   <sheetPr/>
   <dimension ref="A1:F616"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E594" sqref="E594"/>
+      <selection pane="bottomLeft" activeCell="I605" sqref="I605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28574,7 +28568,7 @@
         <v>12073</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>714</v>
+        <v>334</v>
       </c>
       <c r="E602" s="9" t="s">
         <v>218</v>
@@ -28588,7 +28582,7 @@
         <v>12074</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E603" s="9" t="s">
         <v>218</v>
@@ -28616,7 +28610,7 @@
         <v>12076</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E605" s="9" t="s">
         <v>218</v>
@@ -28630,7 +28624,7 @@
         <v>12077</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E606" s="9" t="s">
         <v>218</v>
@@ -28644,7 +28638,7 @@
         <v>12078</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D607" s="8" t="s">
         <v>108</v>
@@ -28661,7 +28655,7 @@
         <v>12079</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D608" s="8" t="s">
         <v>111</v>
@@ -28678,7 +28672,7 @@
         <v>12080</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D609" s="8" t="s">
         <v>111</v>
@@ -28695,7 +28689,7 @@
         <v>12081</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D610" s="8" t="s">
         <v>108</v>
@@ -28712,7 +28706,7 @@
         <v>12082</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D611" s="8" t="s">
         <v>111</v>
@@ -28729,7 +28723,7 @@
         <v>12083</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D612" s="18" t="s">
         <v>288</v>
@@ -28746,7 +28740,7 @@
         <v>12084</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D613" s="18" t="s">
         <v>676</v>
@@ -28780,7 +28774,7 @@
         <v>12086</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D615" s="18" t="s">
         <v>288</v>
@@ -28797,7 +28791,7 @@
         <v>12087</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D616" s="18" t="s">
         <v>676</v>
@@ -28836,10 +28830,10 @@
         <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -28853,7 +28847,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -28867,7 +28861,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -28881,7 +28875,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -28895,7 +28889,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -28909,7 +28903,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -28923,7 +28917,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -28937,7 +28931,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -28951,7 +28945,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -28965,7 +28959,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -28979,7 +28973,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D11">
         <v>3000</v>
@@ -28993,7 +28987,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D12">
         <v>4000</v>
@@ -29007,7 +29001,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D13">
         <v>6000</v>
@@ -29021,7 +29015,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D14">
         <v>10000</v>
@@ -29035,7 +29029,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -29049,7 +29043,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D16">
         <v>12000</v>
@@ -29063,7 +29057,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D17">
         <v>12000</v>
@@ -29077,7 +29071,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -29091,7 +29085,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -29105,7 +29099,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -29119,7 +29113,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D21">
         <v>10000</v>
@@ -29133,7 +29127,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -29147,7 +29141,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -29161,7 +29155,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -29175,7 +29169,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D25">
         <v>500</v>
@@ -29189,7 +29183,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D26">
         <v>500</v>
@@ -29203,7 +29197,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D27">
         <v>1000</v>
@@ -29217,7 +29211,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D28">
         <v>1000</v>
@@ -29231,7 +29225,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D29">
         <v>1000</v>
@@ -29245,7 +29239,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -29259,7 +29253,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D31">
         <v>3000</v>
@@ -29273,7 +29267,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D32">
         <v>3940</v>
@@ -29287,7 +29281,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D33">
         <v>6000</v>
@@ -29301,7 +29295,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D34">
         <v>10000</v>
@@ -29315,7 +29309,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D35">
         <v>10000</v>
@@ -29329,7 +29323,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D36">
         <v>12000</v>
@@ -29343,7 +29337,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D37">
         <v>10000</v>
@@ -29357,7 +29351,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D38">
         <v>10000</v>
@@ -29371,7 +29365,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D39">
         <v>10000</v>
@@ -29385,7 +29379,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D40">
         <v>10000</v>
@@ -29399,7 +29393,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D41">
         <v>10000</v>
@@ -29413,7 +29407,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -29427,7 +29421,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -29441,7 +29435,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D44">
         <v>50</v>
@@ -29455,7 +29449,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D45">
         <v>500</v>
@@ -29469,7 +29463,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D46">
         <v>500</v>
@@ -29483,7 +29477,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D47">
         <v>1000</v>
@@ -29497,7 +29491,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D48">
         <v>1000</v>
@@ -29511,7 +29505,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D49">
         <v>1000</v>
@@ -29525,7 +29519,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D50">
         <v>1000</v>
@@ -29539,7 +29533,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D51">
         <v>3000</v>
@@ -29553,7 +29547,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D52">
         <v>3939</v>
@@ -29567,7 +29561,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D53">
         <v>6000</v>
@@ -29581,7 +29575,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D54">
         <v>10000</v>
@@ -29595,7 +29589,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D55">
         <v>10000</v>
@@ -29609,7 +29603,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D56">
         <v>12000</v>
@@ -29623,7 +29617,7 @@
         <v>16</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D57">
         <v>10000</v>
@@ -29637,7 +29631,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D58">
         <v>10000</v>
@@ -29651,7 +29645,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D59">
         <v>10000</v>
@@ -29665,7 +29659,7 @@
         <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D60">
         <v>10000</v>
@@ -29679,7 +29673,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D61">
         <v>10000</v>
@@ -29693,7 +29687,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
@@ -29707,7 +29701,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
@@ -29721,7 +29715,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
@@ -29735,7 +29729,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
@@ -29749,7 +29743,7 @@
         <v>25</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -29763,7 +29757,7 @@
         <v>26</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D67" s="5">
         <v>16</v>
@@ -29777,7 +29771,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D68" s="5">
         <v>16</v>
@@ -29791,7 +29785,7 @@
         <v>28</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D69" s="5">
         <v>160</v>
@@ -29805,7 +29799,7 @@
         <v>29</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D70" s="5">
         <v>802</v>
@@ -29819,7 +29813,7 @@
         <v>30</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D71" s="5">
         <v>802</v>
@@ -29833,7 +29827,7 @@
         <v>31</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D72" s="5">
         <v>481</v>
@@ -29847,7 +29841,7 @@
         <v>32</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D73" s="5">
         <v>1283</v>
@@ -29861,7 +29855,7 @@
         <v>33</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D74" s="5">
         <v>1604</v>
@@ -29875,7 +29869,7 @@
         <v>34</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D75" s="5">
         <v>2406</v>
@@ -29889,7 +29883,7 @@
         <v>35</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D76" s="5">
         <v>2406</v>
@@ -29903,7 +29897,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
@@ -29917,7 +29911,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
@@ -29931,7 +29925,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D79" s="5">
         <v>2</v>
@@ -29945,7 +29939,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D80" s="5">
         <v>8</v>
@@ -29959,7 +29953,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D81" s="5">
         <v>13</v>
@@ -29973,7 +29967,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D82" s="5">
         <v>16</v>
@@ -29987,7 +29981,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D83" s="5">
         <v>16</v>
@@ -30001,7 +29995,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D84" s="5">
         <v>160</v>
@@ -30015,7 +30009,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D85" s="5">
         <v>802</v>
@@ -30029,7 +30023,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D86" s="5">
         <v>802</v>
@@ -30043,7 +30037,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D87" s="5">
         <v>481</v>
@@ -30057,7 +30051,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D88" s="5">
         <v>1283</v>
@@ -30071,7 +30065,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D89" s="5">
         <v>1604</v>
@@ -30085,7 +30079,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D90" s="5">
         <v>2406</v>
@@ -30099,7 +30093,7 @@
         <v>35</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D91" s="5">
         <v>2406</v>
@@ -30234,25 +30228,25 @@
   <sheetData>
     <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -30260,10 +30254,10 @@
         <v>88</v>
       </c>
       <c r="B2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -30272,7 +30266,7 @@
         <v>1000479</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -30280,10 +30274,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -30294,10 +30288,10 @@
         <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -30308,10 +30302,10 @@
         <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -30322,10 +30316,10 @@
         <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -30336,10 +30330,10 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -30350,10 +30344,10 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -30382,21 +30376,21 @@
   <sheetData>
     <row r="1" ht="27" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B2">
         <v>88</v>
@@ -30405,12 +30399,12 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -30421,7 +30415,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -30432,7 +30426,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B5">
         <v>91</v>
@@ -30443,7 +30437,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -30454,7 +30448,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B7">
         <v>93</v>
@@ -30465,7 +30459,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B8">
         <v>96</v>
@@ -30476,7 +30470,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B9">
         <v>97</v>
@@ -30487,7 +30481,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B10">
         <v>98</v>
@@ -30519,10 +30513,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/box_exchange_server.xlsx
+++ b/config_6.8/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5242,7 +5242,7 @@
     <t>hlwyt_016_fqdr_rank</t>
   </si>
   <si>
-    <t>zqdw_ 019_fqdr_rank</t>
+    <t>zqdw_019_fqdr_rank</t>
   </si>
   <si>
     <t>key|一件兑换key</t>
@@ -5295,9 +5295,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -5340,6 +5340,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5354,14 +5384,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5375,20 +5406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -5399,10 +5419,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5414,31 +5435,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5452,9 +5459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5475,17 +5481,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5550,7 +5550,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5562,85 +5652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5658,13 +5676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5676,25 +5694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5706,13 +5706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5791,6 +5791,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5802,9 +5817,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5824,28 +5841,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5855,10 +5855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5867,136 +5867,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6475,7 +6475,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9348,7 +9348,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -10648,7 +10648,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B609" sqref="B609"/>
+      <selection pane="bottomRight" activeCell="D614" sqref="D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -19229,10 +19229,10 @@
   <sheetPr/>
   <dimension ref="A1:F616"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I605" sqref="I605"/>
+      <selection pane="bottomLeft" activeCell="F611" sqref="F611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -30213,8 +30213,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
